--- a/hoo-goa-chu-im.xlsx
+++ b/hoo-goa-chu-im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB73F4B-F4C6-484D-9AF0-DF93993ADF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F93348-7D83-A54E-A50E-A62766877CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="1240" windowWidth="19440" windowHeight="17760" activeTab="5" xr2:uid="{34E700FC-4C0E-994F-B0CD-4AD13BB7FCE5}"/>
+    <workbookView xWindow="-19840" yWindow="2020" windowWidth="19440" windowHeight="17760" activeTab="5" xr2:uid="{34E700FC-4C0E-994F-B0CD-4AD13BB7FCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="9" state="hidden" r:id="rId1"/>
@@ -9903,8 +9903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7155533-34E6-9A4E-BB9D-962E93B1D957}">
   <dimension ref="A1:J293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
